--- a/InputData/hydgn/HPtFM/Hydrogen Pathway to Fuel Mappings.xlsx
+++ b/InputData/hydgn/HPtFM/Hydrogen Pathway to Fuel Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\HPtFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5844221-6783-4B6E-9B09-1D5996089E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F691F8-780E-41EC-97C8-95ABC1193578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="1440" windowWidth="25290" windowHeight="13845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60840" yWindow="2385" windowWidth="24900" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>HPtFM Hydrogen Pathway to Fuel Mappings</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>hydrocarbon partial oxidation</t>
+  </si>
+  <si>
+    <t>green hydrogen</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,10 +540,10 @@
     <col min="1" max="1" width="32.7265625" customWidth="1"/>
     <col min="2" max="8" width="13.1796875" customWidth="1"/>
     <col min="9" max="9" width="15.1796875" customWidth="1"/>
-    <col min="10" max="11" width="13.1796875" customWidth="1"/>
+    <col min="10" max="13" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -571,8 +577,14 @@
       <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -606,8 +618,14 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -641,8 +659,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -676,8 +700,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -711,8 +741,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -746,8 +782,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -791,8 +833,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <f t="shared" ref="L7:M7" si="1">L2</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -801,39 +851,47 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:K8" si="1">C3</f>
+        <f t="shared" ref="C8:K8" si="2">C3</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:M8" si="3">L3</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
